--- a/bots/crawl_ch/output/clothes_2022-09-07.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-09-07.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:51</t>
+          <t>2022-09-07 21:02:19</t>
         </is>
       </c>
     </row>
